--- a/QHKH/BIEUMAUEXCEL/BM01CH.xlsx
+++ b/QHKH/BIEUMAUEXCEL/BM01CH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\QHKH\QHKH\BIEUMAUEXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B8243B-B38D-4759-B44E-7DD84E44ED9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FC82B0-988F-4A7F-B0A3-E87DEAA808BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1305" windowWidth="21600" windowHeight="14895" xr2:uid="{282F4766-5114-46B0-B433-2EEA91293C5C}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="14895" xr2:uid="{282F4766-5114-46B0-B433-2EEA91293C5C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="111">
   <si>
     <t>STT</t>
   </si>
@@ -387,12 +387,15 @@
   <si>
     <t>PNK</t>
   </si>
+  <si>
+    <t>BM01/CH</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,6 +442,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -530,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -560,6 +571,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -578,8 +591,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -896,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B81006-4EE4-40EB-A6A4-3B63C9622C31}">
   <dimension ref="A1:Y56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F10:F11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,25 +924,27 @@
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
     <col min="8" max="8" width="12.140625" customWidth="1"/>
     <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="25" max="25" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-    </row>
-    <row r="2" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="Y1" s="19"/>
+    </row>
+    <row r="2" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -936,49 +953,52 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
+      <c r="Y2" s="20" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="16"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="18"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="9"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -1002,9 +1022,9 @@
       <c r="Y4" s="10"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -1038,7 +1058,7 @@
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="11">
         <f>SUM(E6:BM6)</f>
         <v>0</v>
       </c>
@@ -1076,7 +1096,7 @@
       <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="11">
         <f t="shared" ref="D7:D56" si="0">SUM(E7:BM7)</f>
         <v>0</v>
       </c>
@@ -1110,7 +1130,7 @@
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1146,7 +1166,7 @@
       <c r="C9" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1182,7 +1202,7 @@
       <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1218,7 +1238,7 @@
       <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1254,7 +1274,7 @@
       <c r="C12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1290,7 +1310,7 @@
       <c r="C13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1324,7 +1344,7 @@
       <c r="C14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1360,7 +1380,7 @@
       <c r="C15" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1396,7 +1416,7 @@
       <c r="C16" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1432,7 +1452,7 @@
       <c r="C17" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1468,7 +1488,7 @@
       <c r="C18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1504,7 +1524,7 @@
       <c r="C19" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1540,7 +1560,7 @@
       <c r="C20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1576,7 +1596,7 @@
       <c r="C21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1612,7 +1632,7 @@
       <c r="C22" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1648,7 +1668,7 @@
       <c r="C23" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1684,7 +1704,7 @@
       <c r="C24" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1720,7 +1740,7 @@
       <c r="C25" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1756,7 +1776,7 @@
       <c r="C26" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1792,7 +1812,7 @@
       <c r="C27" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1828,7 +1848,7 @@
       <c r="C28" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1864,7 +1884,7 @@
       <c r="C29" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1900,7 +1920,7 @@
       <c r="C30" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1936,7 +1956,7 @@
       <c r="C31" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1972,7 +1992,7 @@
       <c r="C32" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2008,7 +2028,7 @@
       <c r="C33" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2044,7 +2064,7 @@
       <c r="C34" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2080,7 +2100,7 @@
       <c r="C35" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D35" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2116,7 +2136,7 @@
       <c r="C36" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2152,7 +2172,7 @@
       <c r="C37" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D37" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2188,7 +2208,7 @@
       <c r="C38" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D38" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2224,7 +2244,7 @@
       <c r="C39" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D39" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2260,7 +2280,7 @@
       <c r="C40" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="17">
+      <c r="D40" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2296,7 +2316,7 @@
       <c r="C41" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D41" s="17">
+      <c r="D41" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2332,7 +2352,7 @@
       <c r="C42" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D42" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2368,7 +2388,7 @@
       <c r="C43" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2404,7 +2424,7 @@
       <c r="C44" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D44" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2440,7 +2460,7 @@
       <c r="C45" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D45" s="17">
+      <c r="D45" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2476,7 +2496,7 @@
       <c r="C46" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D46" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2512,7 +2532,7 @@
       <c r="C47" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D47" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2548,7 +2568,7 @@
       <c r="C48" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D48" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2584,7 +2604,7 @@
       <c r="C49" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D49" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2620,7 +2640,7 @@
       <c r="C50" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D50" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2656,7 +2676,7 @@
       <c r="C51" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D51" s="17">
+      <c r="D51" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2692,7 +2712,7 @@
       <c r="C52" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D52" s="17">
+      <c r="D52" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2728,7 +2748,7 @@
       <c r="C53" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D53" s="17">
+      <c r="D53" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2764,7 +2784,7 @@
       <c r="C54" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D54" s="17">
+      <c r="D54" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2800,7 +2820,7 @@
       <c r="C55" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D55" s="17">
+      <c r="D55" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2836,7 +2856,7 @@
       <c r="C56" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D56" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
